--- a/Documentation/TaskList.xlsx
+++ b/Documentation/TaskList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Campus\2020\PRJ381\EdenFarms\EdenFarms\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197B1B63-3E91-4E7A-96D9-A63CAD7B0866}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBD2A99-2B7F-4E9C-B454-E616625A1ECB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="B1:U14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L18" sqref="L18"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -734,8 +734,8 @@
       <c r="G9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>17</v>
+      <c r="H9" s="9" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Documentation/TaskList.xlsx
+++ b/Documentation/TaskList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Campus\2020\PRJ381\EdenFarms\EdenFarms\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EBD2A99-2B7F-4E9C-B454-E616625A1ECB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80381ED4-CAEF-4678-BD82-04700F2C9916}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>Phill McCarter</t>
   </si>
@@ -128,6 +128,9 @@
   <si>
     <t>Add Basic Methodes to access and store data usi8ng 
 stored Procudres</t>
+  </si>
+  <si>
+    <t>Date Completed</t>
   </si>
 </sst>
 </file>
@@ -232,7 +235,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -245,6 +248,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="16" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -528,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:U14"/>
+  <dimension ref="B1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -541,12 +545,13 @@
     <col min="4" max="4" width="46.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
@@ -563,13 +568,16 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="I2" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="2:21" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:22" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
@@ -585,14 +593,15 @@
       <c r="F3" s="4">
         <v>43971</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" s="6" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -608,17 +617,18 @@
       <c r="F4" s="4">
         <v>43976</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H4" s="7" t="s">
+      <c r="G4" s="4"/>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -634,17 +644,20 @@
       <c r="F5" s="4">
         <v>43969</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="10">
+        <v>43969</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="I5" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
@@ -660,14 +673,17 @@
       <c r="F6" s="4">
         <v>43971</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="10">
+        <v>43971</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
@@ -683,17 +699,18 @@
       <c r="F7" s="4">
         <v>43974</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="9" t="s">
+      <c r="G7" s="4"/>
+      <c r="H7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="U7" t="s">
+      <c r="V7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>1</v>
       </c>
@@ -707,19 +724,20 @@
         <v>43971</v>
       </c>
       <c r="F8" s="4">
-        <v>43976</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H8" s="7" t="s">
+        <v>43975</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="U8" t="s">
+      <c r="V8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:22" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
@@ -729,77 +747,87 @@
       <c r="D9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H9" s="9" t="s">
+      <c r="E9" s="4">
+        <v>43970</v>
+      </c>
+      <c r="F9" s="4">
+        <v>43976</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="G11" s="1"/>
+      <c r="H11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="G12" s="1"/>
+      <c r="H12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="G13" s="1"/>
+      <c r="H13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="G14" s="1"/>
+      <c r="H14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>17</v>
       </c>
     </row>

--- a/Documentation/TaskList.xlsx
+++ b/Documentation/TaskList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Campus\2020\PRJ381\EdenFarms\EdenFarms\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80381ED4-CAEF-4678-BD82-04700F2C9916}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF3B44F-28B2-4A91-A252-11A15E680E1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
   <si>
     <t>Phill McCarter</t>
   </si>
@@ -131,13 +131,19 @@
   </si>
   <si>
     <t>Date Completed</t>
+  </si>
+  <si>
+    <t>Add login fanctonality</t>
+  </si>
+  <si>
+    <t>Add login functonality and improve UI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,6 +183,13 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,7 +248,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -249,6 +262,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -535,7 +550,7 @@
   <dimension ref="B1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -593,9 +608,11 @@
       <c r="F3" s="4">
         <v>43971</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
+      <c r="G3" s="11">
+        <v>43972</v>
+      </c>
+      <c r="H3" s="12" t="s">
+        <v>20</v>
       </c>
       <c r="I3" s="6" t="s">
         <v>16</v>
@@ -757,22 +774,32 @@
       <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="9" t="s">
-        <v>25</v>
+      <c r="I9" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="4">
+        <v>43972</v>
+      </c>
+      <c r="F10" s="4">
+        <v>43972</v>
+      </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>17</v>
+      <c r="I10" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -833,6 +860,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documentation/TaskList.xlsx
+++ b/Documentation/TaskList.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Campus\2020\PRJ381\EdenFarms\EdenFarms\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF3B44F-28B2-4A91-A252-11A15E680E1A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1AA973A-89B9-4845-AFDA-950A1C9120EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="36">
   <si>
     <t>Phill McCarter</t>
   </si>
@@ -137,13 +137,19 @@
   </si>
   <si>
     <t>Add login functonality and improve UI</t>
+  </si>
+  <si>
+    <t>Add CSS</t>
+  </si>
+  <si>
+    <t>Create visually better UI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,13 +189,6 @@
     <font>
       <sz val="11"/>
       <color theme="9" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -263,7 +262,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="3" applyBorder="1"/>
     <xf numFmtId="16" fontId="3" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="16" fontId="2" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -550,7 +549,7 @@
   <dimension ref="B1:V14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -611,7 +610,7 @@
       <c r="G3" s="11">
         <v>43972</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="I3" s="6" t="s">
@@ -693,8 +692,8 @@
       <c r="G6" s="10">
         <v>43971</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>12</v>
+      <c r="H6" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="I6" s="6" t="s">
         <v>16</v>
@@ -714,7 +713,7 @@
         <v>43970</v>
       </c>
       <c r="F7" s="4">
-        <v>43974</v>
+        <v>43975</v>
       </c>
       <c r="G7" s="4"/>
       <c r="H7" s="1" t="s">
@@ -744,8 +743,8 @@
         <v>43975</v>
       </c>
       <c r="G8" s="4"/>
-      <c r="H8" s="1" t="s">
-        <v>12</v>
+      <c r="H8" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="I8" s="7" t="s">
         <v>17</v>
@@ -770,7 +769,9 @@
       <c r="F9" s="4">
         <v>43976</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="12">
+        <v>43974</v>
+      </c>
       <c r="H9" s="1" t="s">
         <v>12</v>
       </c>
@@ -794,26 +795,38 @@
       <c r="F10" s="4">
         <v>43972</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
-        <v>12</v>
+      <c r="G10" s="11">
+        <v>43973</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>20</v>
       </c>
       <c r="I10" s="6" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43973</v>
+      </c>
+      <c r="F11" s="4">
+        <v>43973</v>
+      </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>17</v>
+      <c r="I11" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
